--- a/gd/MT/教学点和游戏玩法整体节奏.xlsx
+++ b/gd/MT/教学点和游戏玩法整体节奏.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="36380" windowHeight="19080" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="8300" yWindow="3540" windowWidth="37080" windowHeight="19100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="总体教学点分布" sheetId="1" r:id="rId1"/>
     <sheet name="技能对应" sheetId="3" r:id="rId2"/>
     <sheet name="弱点玩法节奏" sheetId="2" r:id="rId3"/>
     <sheet name="核心对局相关" sheetId="6" r:id="rId4"/>
-    <sheet name="副本和核心玩法节奏" sheetId="5" r:id="rId5"/>
+    <sheet name="佈怪基础" sheetId="7" r:id="rId5"/>
+    <sheet name="副本和核心玩法节奏" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="668">
   <si>
     <t>游戏学习点和玩法分布</t>
   </si>
@@ -1295,9 +1296,6 @@
     <t>基础想法</t>
   </si>
   <si>
-    <t>学习照妖镜+集火+法术相克</t>
-  </si>
-  <si>
     <t>蓝红绿</t>
   </si>
   <si>
@@ -1307,63 +1305,24 @@
     <t>Nil</t>
   </si>
   <si>
-    <t>照妖镜找弱点 +</t>
-  </si>
-  <si>
-    <t>小蓝法D，中红法D</t>
-  </si>
-  <si>
-    <t>大红法D</t>
-  </si>
-  <si>
     <t>神殿蓝+普通蓝</t>
   </si>
   <si>
-    <t>蓝打绿</t>
-  </si>
-  <si>
     <t>明显加血部位</t>
   </si>
   <si>
     <t>明显加盾部位</t>
   </si>
   <si>
-    <t>教加血</t>
-  </si>
-  <si>
     <t>投放绿加血</t>
   </si>
   <si>
-    <t>小红法，中蓝法</t>
-  </si>
-  <si>
-    <t>大绿加血</t>
-  </si>
-  <si>
-    <t>大蓝加盾</t>
-  </si>
-  <si>
-    <t>投放蓝加盾</t>
-  </si>
-  <si>
     <t>投放绿物理</t>
   </si>
   <si>
     <t>物理</t>
   </si>
   <si>
-    <t>大绿物理</t>
-  </si>
-  <si>
-    <t>神殿蓝， 物攻蓝</t>
-  </si>
-  <si>
-    <t>神殿蓝， 物攻蓝，绿加血</t>
-  </si>
-  <si>
-    <t>混合</t>
-  </si>
-  <si>
     <t>红法D</t>
   </si>
   <si>
@@ -1373,9 +1332,6 @@
     <t>明显法攻，加盾部位</t>
   </si>
   <si>
-    <t>教加盾，基础团队为TDS</t>
-  </si>
-  <si>
     <t>蓝打红，绿</t>
   </si>
   <si>
@@ -1385,18 +1341,6 @@
     <t>绿物理打蓝</t>
   </si>
   <si>
-    <t>大蓝法AOE</t>
-  </si>
-  <si>
-    <t>玩家爽快果过关并巩固TDS基础团队</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>玩家爽快使用物理打断, 同时知道物理没有属性相克</t>
-  </si>
-  <si>
     <t>大红法AOE</t>
   </si>
   <si>
@@ -1418,15 +1362,9 @@
     <t>大绿法提升S</t>
   </si>
   <si>
-    <t>智力/速度</t>
-  </si>
-  <si>
     <t>1 - 伤害比高，2 - 智力，速度</t>
   </si>
   <si>
-    <t>物理没有属性相克</t>
-  </si>
-  <si>
     <t>投放红怪？</t>
   </si>
   <si>
@@ -1439,9 +1377,6 @@
     <t>触发隐藏弱点</t>
   </si>
   <si>
-    <t>2,2</t>
-  </si>
-  <si>
     <t>0,1</t>
   </si>
   <si>
@@ -1460,12 +1395,6 @@
     <t>替换+时机</t>
   </si>
   <si>
-    <t>更多Buff玩法理解</t>
-  </si>
-  <si>
-    <t>教物理打断+物理大招</t>
-  </si>
-  <si>
     <t>法术大招</t>
   </si>
   <si>
@@ -1502,9 +1431,6 @@
     <t>Dot， Hot</t>
   </si>
   <si>
-    <t>降低速度</t>
-  </si>
-  <si>
     <t>增加防御</t>
   </si>
   <si>
@@ -1527,13 +1453,651 @@
   </si>
   <si>
     <t>不稳定， 技能触发</t>
+  </si>
+  <si>
+    <t>智力/防御</t>
+  </si>
+  <si>
+    <t>强物理，打断玩家法攻，要物理怪对应</t>
+  </si>
+  <si>
+    <t>照妖镜找弱点 + 法术大招</t>
+  </si>
+  <si>
+    <t>1 - 伤害比高，2 -力量</t>
+  </si>
+  <si>
+    <t>1 - 伤害比高，2 -降低速度</t>
+  </si>
+  <si>
+    <t>1 - 盾，伤害比， 2 - 防御，力量</t>
+  </si>
+  <si>
+    <t>绿怪比较多</t>
+  </si>
+  <si>
+    <t>有黑白</t>
+  </si>
+  <si>
+    <t>爽快</t>
+  </si>
+  <si>
+    <t>增加速度</t>
+  </si>
+  <si>
+    <t>Buff 提升</t>
+  </si>
+  <si>
+    <t>现实</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>巢穴</t>
+  </si>
+  <si>
+    <t>冥河</t>
+  </si>
+  <si>
+    <t>神殿</t>
+  </si>
+  <si>
+    <t>绿物D</t>
+  </si>
+  <si>
+    <t>精英需求</t>
+  </si>
+  <si>
+    <t>蓝法D</t>
+  </si>
+  <si>
+    <t>双性格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用加血大招 </t>
+  </si>
+  <si>
+    <t>爽快，使用加盾防御物理</t>
+  </si>
+  <si>
+    <t>投放黑物理D</t>
+  </si>
+  <si>
+    <t>debuff 妨害</t>
+  </si>
+  <si>
+    <t>降低对方速度</t>
+  </si>
+  <si>
+    <t>妨害</t>
+  </si>
+  <si>
+    <t>提升</t>
+  </si>
+  <si>
+    <t>物理不能被打断，但是没有属性相克</t>
+  </si>
+  <si>
+    <t>1,1,2</t>
+  </si>
+  <si>
+    <t>1,2,2</t>
+  </si>
+  <si>
+    <t>★1</t>
+  </si>
+  <si>
+    <t>★2</t>
+  </si>
+  <si>
+    <t>★3</t>
+  </si>
+  <si>
+    <t>红速法D（小丑 Joker）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★4</t>
+  </si>
+  <si>
+    <t>蓝法D（蛙鬼 Phase Frog）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★5</t>
+  </si>
+  <si>
+    <t>★6</t>
+  </si>
+  <si>
+    <t>蓝提升S （河童 Kappa）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★7</t>
+  </si>
+  <si>
+    <t>绿物D（花魄 Flower Pixie）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★8</t>
+  </si>
+  <si>
+    <t>绿物T（蜥蜴人 Lizardman）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★10</t>
+  </si>
+  <si>
+    <t>黑法D (皮影 Shadow Puppet)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★11</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★12</t>
+  </si>
+  <si>
+    <t>白提升S（伪天使 Fallen Angel)</t>
+  </si>
+  <si>
+    <t>★13</t>
+  </si>
+  <si>
+    <t>白H (得莫菲 Demovoy)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★1</t>
+  </si>
+  <si>
+    <t>★★2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★3</t>
+  </si>
+  <si>
+    <t>蓝控S（水鬼 Davy Jones）</t>
+  </si>
+  <si>
+    <t>★★4</t>
+  </si>
+  <si>
+    <t>★★5</t>
+  </si>
+  <si>
+    <t>黑法D辅妨害S（ 女妖 banshee）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★6</t>
+  </si>
+  <si>
+    <t>蓝H（龙宫童子）（缺英文名）</t>
+    <rPh sb="9" eb="10">
+      <t>que</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying'wen'min</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ming</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★7</t>
+  </si>
+  <si>
+    <t>绿物D（潘神 Pans）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★8</t>
+  </si>
+  <si>
+    <t>★★9</t>
+  </si>
+  <si>
+    <t>★★10</t>
+  </si>
+  <si>
+    <t>★★11</t>
+  </si>
+  <si>
+    <t>★★12</t>
+  </si>
+  <si>
+    <t>★★13</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★1</t>
+  </si>
+  <si>
+    <t>白提升S辅助hot （独角兽 Unicorn）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑妨害S（凯瑞斯 Keres）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★3</t>
+  </si>
+  <si>
+    <t>蓝法T（阿穆特 Ammut）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★4</t>
+  </si>
+  <si>
+    <t>★★★5</t>
+  </si>
+  <si>
+    <t>蓝妨害S（龙女 Dragon Daughter）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★6</t>
+  </si>
+  <si>
+    <t>绿物D (精灵王 King Elve*)</t>
+  </si>
+  <si>
+    <t>★★★7</t>
+  </si>
+  <si>
+    <t>红法dot攻（伊芙利特, Ifrit）</t>
+  </si>
+  <si>
+    <t>★★★8</t>
+  </si>
+  <si>
+    <t>绿H （森林妖姬 Dryad）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★9</t>
+  </si>
+  <si>
+    <t>★★★10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑妨害S （安普沙  Empusa）</t>
+    <rPh sb="0" eb="1">
+      <t>hei</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★1</t>
+  </si>
+  <si>
+    <t>★★★★2</t>
+  </si>
+  <si>
+    <t>★★★★3</t>
+  </si>
+  <si>
+    <t>★★★★4</t>
+  </si>
+  <si>
+    <t>红（熔岩巨人）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★5</t>
+  </si>
+  <si>
+    <t>白（黄金之灵）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★6</t>
+  </si>
+  <si>
+    <t>蓝（寒冰骨龙）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★7</t>
+  </si>
+  <si>
+    <t>黑（卡戎 Charon）</t>
+    <rPh sb="2" eb="3">
+      <t>ka'rong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★★8</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>黑色</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>已做</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>物攻，法攻</t>
+  </si>
+  <si>
+    <t>火刺壳</t>
+  </si>
+  <si>
+    <t>舞狮</t>
+  </si>
+  <si>
+    <t>小丑</t>
+  </si>
+  <si>
+    <t>哇鬼</t>
+  </si>
+  <si>
+    <t>冰岩</t>
+  </si>
+  <si>
+    <t>河童</t>
+  </si>
+  <si>
+    <t>花魄</t>
+  </si>
+  <si>
+    <t>蜥蜴人</t>
+  </si>
+  <si>
+    <t>走音草</t>
+  </si>
+  <si>
+    <t>皮影</t>
+  </si>
+  <si>
+    <t>梦魇</t>
+  </si>
+  <si>
+    <t>伪天使</t>
+  </si>
+  <si>
+    <t>得莫菲</t>
+  </si>
+  <si>
+    <t>曼陀罗</t>
+  </si>
+  <si>
+    <t>温迪戈</t>
+  </si>
+  <si>
+    <t>水鬼</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>女妖</t>
+  </si>
+  <si>
+    <t>龙宫童子</t>
+  </si>
+  <si>
+    <t>潘神</t>
+  </si>
+  <si>
+    <t>哈皮</t>
+  </si>
+  <si>
+    <t>道成寺钟</t>
+  </si>
+  <si>
+    <t>红牛</t>
+  </si>
+  <si>
+    <t>嫦娥</t>
+  </si>
+  <si>
+    <t>独角兽</t>
+  </si>
+  <si>
+    <t>凯瑞斯</t>
+  </si>
+  <si>
+    <t>阿穆特</t>
+  </si>
+  <si>
+    <t>落新妇</t>
+  </si>
+  <si>
+    <t>龙女</t>
+  </si>
+  <si>
+    <t>精灵王</t>
+  </si>
+  <si>
+    <t>伊芙利特</t>
+  </si>
+  <si>
+    <t>森林妖姬</t>
+  </si>
+  <si>
+    <t>大天狗</t>
+  </si>
+  <si>
+    <t>安普沙</t>
+  </si>
+  <si>
+    <t>法</t>
+  </si>
+  <si>
+    <t>红T</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>控</t>
+  </si>
+  <si>
+    <t>法D妨害</t>
+  </si>
+  <si>
+    <t>物D</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>H驱散S</t>
+  </si>
+  <si>
+    <t>提升S辅助HOT</t>
+  </si>
+  <si>
+    <t>法T</t>
+  </si>
+  <si>
+    <t>法DotD</t>
+  </si>
+  <si>
+    <t>妨害S</t>
+  </si>
+  <si>
+    <t>法DOTD</t>
+  </si>
+  <si>
+    <t>速度发D</t>
+  </si>
+  <si>
+    <t>法D</t>
+  </si>
+  <si>
+    <t>进化</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>星</t>
+  </si>
+  <si>
+    <t>绿T</t>
+  </si>
+  <si>
+    <t>法控</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>Deity</t>
+  </si>
+  <si>
+    <t>物驱散</t>
+  </si>
+  <si>
+    <t>伤害减免（免疫）</t>
+  </si>
+  <si>
+    <t>学习照妖镜+集火+法术相克。红法必出, 集火红法教学。</t>
+  </si>
+  <si>
+    <t>巩固照妖镜弱点有不同属性</t>
+  </si>
+  <si>
+    <t>绿法D</t>
+  </si>
+  <si>
+    <t>绿加血</t>
+  </si>
+  <si>
+    <t>教加盾，基础TDS团队形成</t>
+  </si>
+  <si>
+    <t>蓝打绿，红</t>
+  </si>
+  <si>
+    <t xml:space="preserve">红法 </t>
+  </si>
+  <si>
+    <t>神殿蓝， 蓝法D</t>
+  </si>
+  <si>
+    <t>蓝T</t>
+  </si>
+  <si>
+    <t>投放蓝T</t>
+  </si>
+  <si>
+    <t>绿物理</t>
+  </si>
+  <si>
+    <t>黑法D</t>
+  </si>
+  <si>
+    <t>蓝打红， 蓝</t>
+  </si>
+  <si>
+    <t>蓝法AOE</t>
+  </si>
+  <si>
+    <t>玩家爽快果过关并巩固TDS基础团队，简单引导提升</t>
+  </si>
+  <si>
+    <t>玩家爽快使用物理打断, 同时知道物理没有属性相克，物理性格不出物理</t>
+  </si>
+  <si>
+    <t>红S</t>
+  </si>
+  <si>
+    <t>敌方第一次物理打断玩家</t>
+  </si>
+  <si>
+    <t>红物D</t>
+  </si>
+  <si>
+    <t>黑不受红蓝绿</t>
+  </si>
+  <si>
+    <t>红蓝绿引导完成</t>
+  </si>
+  <si>
+    <t>法物之间引导完成</t>
+  </si>
+  <si>
+    <t>加血大招</t>
+  </si>
+  <si>
+    <t>物理大招</t>
+  </si>
+  <si>
+    <t>Buff类型完成</t>
+  </si>
+  <si>
+    <t>可能有两种物理大招</t>
+  </si>
+  <si>
+    <t>目标显示引导完成</t>
+  </si>
+  <si>
+    <t>各种玩法都完成，后面就是看故事了。4-8Boss厉害点， 5，6调剂，爽快。</t>
+  </si>
+  <si>
+    <t>开启第四五个怪物位置更多Buff玩法理解</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1586,18 +2150,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1622,6 +2201,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1641,10 +2256,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1705,56 +2326,128 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2031,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -2873,7 +3566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
@@ -3084,7 +3777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3380,1453 +4073,1745 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="24" customWidth="1"/>
-    <col min="4" max="5" width="12" style="24" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="22"/>
-    <col min="7" max="7" width="14" style="22" customWidth="1"/>
-    <col min="8" max="9" width="13.1640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="6" style="37" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="11" style="22" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="8.83203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="23" customWidth="1"/>
+    <col min="4" max="6" width="12" style="23" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="14" style="25" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="55" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="6" style="26" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="11" style="24" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F1" s="22" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G1" s="55" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.25">
+      <c r="C3" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>378</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>638</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="R11" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J12" s="24" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="T13" s="24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="68" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="36" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>641</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="34" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>642</v>
+      </c>
+      <c r="G17" s="55" t="s">
+        <v>644</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>647</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>661</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R18" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>643</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>658</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>649</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="85" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>654</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>652</v>
+      </c>
+      <c r="G21" s="55" t="s">
+        <v>430</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>662</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>653</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>655</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="86" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="I23" s="64" t="s">
+        <v>665</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q23" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="R23" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="T23" s="24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>667</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="H24" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="H25" s="62" t="s">
+        <v>660</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="H26" s="24"/>
+      <c r="J26" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="P26" s="24" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="J27" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="J28" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="I29" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="T31" s="24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="N32" s="62" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="52" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>470</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="H33" s="24"/>
+      <c r="J33" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="T33" s="24" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="J35" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="K35" s="26">
+        <v>1</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="J36" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="J38" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="J39" s="24" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="1:20" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="N42" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="31"/>
+      <c r="C43" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="O44" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="P47" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="T47" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="34" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="31"/>
+      <c r="C48" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="J48" s="24" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="31"/>
+      <c r="C49" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+    </row>
+    <row r="51" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="85" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="30"/>
+      <c r="C52" s="57" t="s">
+        <v>666</v>
+      </c>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="30"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="30"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+    </row>
+    <row r="59" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="30"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="J59" s="24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="30"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="30"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="30"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="30"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+    </row>
+    <row r="67" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="N3" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F5" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>410</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F6" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q6" s="22" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H7" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="H8" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="N8" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I11" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="I12" s="22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="S13" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R14" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="T14" s="22" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="N15" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R15" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="M16" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>425</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="N17" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R17" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="S17" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="T17" s="22" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J18" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="N18" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R18" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>441</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="N19" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R19" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>435</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R20" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="N21" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q21" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R21" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>447</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="K22" s="25" t="s">
+      <c r="J67" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="L22" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="76" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>450</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>402</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="R23" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="S23" s="22" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>461</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="I25" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="I26" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="I27" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="J27" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="I28" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="J28" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="I29" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="J30" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="I33" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>482</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="I34" s="22" t="s">
-        <v>493</v>
-      </c>
-      <c r="J34" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="I35" s="22" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="I37" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="N37" s="22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>491</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="I38" s="22" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-    </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="M41" s="25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>413</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-    </row>
-    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="I46" s="22" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-    </row>
-    <row r="49" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29" t="s">
-        <v>474</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="29" t="s">
-        <v>483</v>
-      </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="28"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-    </row>
-    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="28"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="28"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="28"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="28"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="28"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-    </row>
-    <row r="65" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="28"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="I65" s="22" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="29" t="s">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="29" t="s">
+      <c r="B68" s="31"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="B70" s="31"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="B72" s="31"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
+      <c r="B73" s="31"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-    </row>
-    <row r="73" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="30" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+    </row>
+    <row r="75" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29" t="s">
+      <c r="B75" s="31"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I73" s="22" t="s">
+      <c r="J75" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="35" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="35" t="s">
+      <c r="B76" s="36"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="35" t="s">
+      <c r="B77" s="36"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="35" t="s">
+      <c r="B78" s="36"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4834,6 +5819,1126 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A9:N53"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="0" style="24" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="24" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="24" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>575</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>569</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="51" t="s">
+        <v>627</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>625</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="38">
+        <v>1</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J13" s="54" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="G14" s="39"/>
+      <c r="H14" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J14" s="54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39" t="s">
+        <v>509</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>625</v>
+      </c>
+      <c r="J15" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>510</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="38">
+        <v>1</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>637</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>515</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>517</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="38">
+        <v>1</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>518</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="M22" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="52">
+        <v>2</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>598</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="G23" s="48"/>
+      <c r="H23" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="52">
+        <v>2</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="G24" s="48"/>
+      <c r="H24" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="52">
+        <v>2</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="H25" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="52">
+        <v>2</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="D27" s="52">
+        <v>2</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="52">
+        <v>2</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="D29" s="52">
+        <v>2</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>616</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="K29" s="54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="52">
+        <v>2</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>633</v>
+      </c>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="K30" s="54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="52">
+        <v>2</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="52">
+        <v>2</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>613</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="L32" s="54" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>527</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="D33" s="52">
+        <v>2</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="F33" s="39" t="s">
+        <v>615</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="52">
+        <v>2</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="M34" s="54"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
+        <v>533</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="52">
+        <v>2</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>597</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>618</v>
+      </c>
+      <c r="G35" s="48"/>
+      <c r="H35" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="M35" s="54" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
+        <v>550</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="48" t="s">
+        <v>551</v>
+      </c>
+      <c r="D36" s="52">
+        <v>3</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>607</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>623</v>
+      </c>
+      <c r="G36" s="48"/>
+      <c r="H36" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="52">
+        <v>3</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>609</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>624</v>
+      </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="D38" s="52">
+        <v>3</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>603</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="G38" s="48"/>
+      <c r="H38" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J38" s="54" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
+        <v>546</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="D39" s="52">
+        <v>3</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>605</v>
+      </c>
+      <c r="F39" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H39" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="J39" s="54" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="48" t="s">
+        <v>549</v>
+      </c>
+      <c r="D40" s="52">
+        <v>3</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>606</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H40" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="K40" s="54" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44" t="s">
+        <v>553</v>
+      </c>
+      <c r="D41" s="52">
+        <v>3</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>608</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="D42" s="52">
+        <v>3</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="L42" s="54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="D43" s="52">
+        <v>3</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="F43" s="48" t="s">
+        <v>496</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="M43" s="54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="52">
+        <v>3</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="M44" s="54" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="49" t="s">
+        <v>555</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="C45" s="48" t="s">
+        <v>556</v>
+      </c>
+      <c r="D45" s="52">
+        <v>3</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>630</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="53"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>560</v>
+      </c>
+      <c r="B49" s="37"/>
+      <c r="C49" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="D51" s="53"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B53" s="37"/>
+      <c r="C53" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="53"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>

--- a/gd/MT/教学点和游戏玩法整体节奏.xlsx
+++ b/gd/MT/教学点和游戏玩法整体节奏.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="3540" windowWidth="37080" windowHeight="19100" tabRatio="500"/>
+    <workbookView xWindow="4460" yWindow="1320" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总体教学点分布" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="703">
   <si>
     <t>游戏学习点和玩法分布</t>
   </si>
@@ -2091,6 +2091,111 @@
   </si>
   <si>
     <t>开启第四五个怪物位置更多Buff玩法理解</t>
+  </si>
+  <si>
+    <t>原有</t>
+  </si>
+  <si>
+    <t>比较确定要加</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>红蓝绿</t>
+  </si>
+  <si>
+    <t>可加</t>
+  </si>
+  <si>
+    <t>战前能量</t>
+  </si>
+  <si>
+    <t>回血效率。</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>普通法攻</t>
+  </si>
+  <si>
+    <t>单线Buff/Debuff</t>
+  </si>
+  <si>
+    <t>AI技能</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>能量积攒</t>
+  </si>
+  <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>加钱</t>
+  </si>
+  <si>
+    <t>加照妖镜能量</t>
+  </si>
+  <si>
+    <t>炸弹</t>
+  </si>
+  <si>
+    <t>对应关系</t>
+  </si>
+  <si>
+    <t>五行属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿 </t>
+  </si>
+  <si>
+    <t>攻击方 （A)</t>
+  </si>
+  <si>
+    <t>对应方（B）</t>
+  </si>
+  <si>
+    <t>对应方（C)</t>
+  </si>
+  <si>
+    <t>按Buff数量</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>溅射（AOE）</t>
+  </si>
+  <si>
+    <t>DPS</t>
+  </si>
+  <si>
+    <t>防止加血</t>
+  </si>
+  <si>
+    <t>薄血 （伤害减免）</t>
+  </si>
+  <si>
+    <t>大招能量速度</t>
+  </si>
+  <si>
+    <t>耐力</t>
+  </si>
+  <si>
+    <t>大冒险时间</t>
+  </si>
+  <si>
+    <t>后备加分（后备）</t>
+  </si>
+  <si>
+    <t>吸血 （按对方血量？——</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2281,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2234,6 +2339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2325,7 +2436,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2443,6 +2553,7 @@
     <xf numFmtId="14" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2724,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -3564,207 +3675,460 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C44"/>
+  <dimension ref="A2:S46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="23" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" style="23"/>
+    <col min="6" max="6" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="23"/>
+    <col min="10" max="10" width="15.83203125" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="F3" s="23" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F7" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>680</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="F8" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>681</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F9" s="23" t="s">
+        <v>676</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>682</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>683</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O12" s="24"/>
+      <c r="S12" s="23" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="S13" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="K14" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K15" s="23" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="23" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="F19" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F21" s="23" t="s">
+        <v>689</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>628</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="23" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="F23" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>630</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="F25" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="F27" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>686</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="23" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="H28" s="23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="23" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="F29" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="23" t="s">
+        <v>673</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="23" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" s="23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="F33" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>695</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F35" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="53" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="F36" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" s="23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3777,7 +4141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -4076,1742 +4440,1745 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="M5:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="23" customWidth="1"/>
-    <col min="4" max="6" width="12" style="23" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="55" customWidth="1"/>
-    <col min="8" max="8" width="14" style="25" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="55" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="6" style="26" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="25" customWidth="1"/>
-    <col min="13" max="13" width="11" style="24" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="18.5" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="8.83203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="22" customWidth="1"/>
+    <col min="4" max="6" width="12" style="22" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="14" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="23" customWidth="1"/>
+    <col min="11" max="11" width="6" style="25" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="11" style="23" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="54" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="72" x14ac:dyDescent="0.25">
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>409</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="23" t="s">
         <v>405</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="23" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>379</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="23" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>378</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="24" t="s">
+      <c r="R7" s="23" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="M8" s="24" t="s">
+      <c r="M8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="23" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="23" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="O10" s="24" t="s">
+      <c r="O10" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="P10" s="24" t="s">
+      <c r="P10" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="23" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P11" s="24" t="s">
+      <c r="P11" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="R11" s="24" t="s">
+      <c r="R11" s="23" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>400</v>
       </c>
+      <c r="P12" s="23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="T13" s="24" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="T13" s="23" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="68" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>639</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="56" t="s">
         <v>425</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O14" s="24" t="s">
+      <c r="O14" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P14" s="24" t="s">
+      <c r="P14" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R14" s="24" t="s">
+      <c r="R14" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="U14" s="24" t="s">
+      <c r="U14" s="23" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="36" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>471</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>425</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="54" t="s">
         <v>417</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="M15" s="24" t="s">
+      <c r="M15" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R15" s="24" t="s">
+      <c r="R15" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="23" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>425</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="56" t="s">
         <v>641</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="56" t="s">
         <v>418</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="K16" s="26" t="s">
+      <c r="K16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="S16" s="26" t="s">
+      <c r="S16" s="25" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="34" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>640</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>642</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="54" t="s">
         <v>644</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="P17" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="R17" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="T17" s="24" t="s">
+      <c r="T17" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>491</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="56" t="s">
         <v>647</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="54" t="s">
         <v>661</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O18" s="24" t="s">
+      <c r="O18" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="P18" s="24" t="s">
+      <c r="P18" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q18" s="24" t="s">
+      <c r="Q18" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R18" s="24" t="s">
+      <c r="R18" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="T18" s="24" t="s">
+      <c r="T18" s="23" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="56" t="s">
         <v>643</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>641</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="54" t="s">
         <v>658</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="M19" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="O19" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="Q19" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R19" s="24" t="s">
+      <c r="R19" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="23" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="56" t="s">
         <v>492</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>612</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="56" t="s">
         <v>649</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="54" t="s">
         <v>651</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="O20" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="P20" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R20" s="24" t="s">
+      <c r="R20" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="T20" s="24" t="s">
+      <c r="T20" s="23" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="85" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>654</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>487</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="56" t="s">
         <v>652</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="54" t="s">
         <v>662</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="R21" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="23" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="56" t="s">
         <v>655</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="56" t="s">
         <v>437</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="60" t="s">
         <v>659</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K22" s="26" t="s">
+      <c r="K22" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="N22" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="O22" s="24" t="s">
+      <c r="O22" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="P22" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="R22" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S22" s="24" t="s">
+      <c r="S22" s="23" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="86" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>657</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="I23" s="64" t="s">
+      <c r="I23" s="63" t="s">
         <v>665</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="R23" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="T23" s="24" t="s">
+      <c r="T23" s="23" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>667</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="H24" s="25" t="s">
+      <c r="F24" s="56"/>
+      <c r="H24" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="24" t="s">
+      <c r="I24" s="56"/>
+      <c r="J24" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="24" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="54" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>440</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="H25" s="62" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="H25" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="N25" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="R25" s="24" t="s">
+      <c r="R25" s="23" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="H26" s="24"/>
-      <c r="J26" s="24" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="H26" s="23"/>
+      <c r="J26" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="23" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="54" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="J27" s="24" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="J27" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="N27" s="24" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="J28" s="24" t="s">
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="J28" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="K28" s="26" t="s">
+      <c r="K28" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="N28" s="25" t="s">
+      <c r="N28" s="24" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="72" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="56" t="s">
         <v>462</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="I29" s="55" t="s">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="I29" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="N29" s="24" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57" t="s">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="23" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="55" t="s">
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="23" t="s">
         <v>494</v>
       </c>
-      <c r="T31" s="24" t="s">
+      <c r="T31" s="23" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="N32" s="62" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="N32" s="61" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="52" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="56" t="s">
         <v>470</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="H33" s="24"/>
-      <c r="J33" s="24" t="s">
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="H33" s="23"/>
+      <c r="J33" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="M33" s="24" t="s">
+      <c r="M33" s="23" t="s">
         <v>496</v>
       </c>
-      <c r="T33" s="24" t="s">
+      <c r="T33" s="23" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="56" t="s">
         <v>487</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="J35" s="24" t="s">
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="J35" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="K35" s="26">
+      <c r="K35" s="25">
         <v>1</v>
       </c>
-      <c r="O35" s="24" t="s">
+      <c r="O35" s="23" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="J36" s="24" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="J36" s="23" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:20" ht="36" x14ac:dyDescent="0.25">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="J38" s="24" t="s">
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="J38" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="O38" s="24" t="s">
+      <c r="O38" s="23" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="J39" s="24" t="s">
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="J39" s="23" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:20" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59" t="s">
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="23" t="s">
         <v>455</v>
       </c>
-      <c r="N42" s="25" t="s">
+      <c r="N42" s="24" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="22" t="s">
         <v>459</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="O44" s="24" t="s">
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="O44" s="23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="P47" s="24" t="s">
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="P47" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="T47" s="24" t="s">
+      <c r="T47" s="23" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="34" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="59" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="J48" s="24" t="s">
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="J48" s="23" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="57" t="s">
+      <c r="B49" s="30"/>
+      <c r="C49" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="57" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="56" t="s">
         <v>477</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
     </row>
     <row r="51" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57" t="s">
+      <c r="B51" s="30"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56" t="s">
         <v>450</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="23" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="85" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="57" t="s">
+      <c r="B52" s="29"/>
+      <c r="C52" s="56" t="s">
         <v>666</v>
       </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
     </row>
     <row r="59" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="23" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
     </row>
     <row r="67" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57" t="s">
+      <c r="B67" s="29"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="23" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="31"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="31"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
     </row>
     <row r="75" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B75" s="31"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57" t="s">
+      <c r="B75" s="30"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="J75" s="24" t="s">
+      <c r="J75" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="36" t="s">
+      <c r="A76" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="36"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5820,323 +6187,357 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:N53"/>
+  <dimension ref="A4:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="D3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="0" style="24" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="24" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="24" customWidth="1"/>
-    <col min="6" max="7" width="11.6640625" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="2" width="0" style="23" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="23" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="23" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I4" s="53"/>
+      <c r="J4" s="23" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="64"/>
+      <c r="J5" s="23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="23" t="s">
+        <v>636</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>672</v>
+      </c>
+    </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>632</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>570</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="23" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="51" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="50" t="s">
         <v>627</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>1</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="38"/>
+      <c r="H11" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="53" t="s">
         <v>497</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="62" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>611</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="23" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>1</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>580</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="24" t="s">
+      <c r="G13" s="38"/>
+      <c r="H13" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="53" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>1</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="38"/>
+      <c r="H14" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="J14" s="54" t="s">
+      <c r="J14" s="53" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="40" t="s">
         <v>508</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="39" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>1</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="62" t="s">
         <v>625</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="53" t="s">
         <v>497</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>510</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>1</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="53" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>1</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="38" t="s">
         <v>584</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>616</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="53" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>1</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="53" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>1</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -6145,75 +6546,75 @@
       <c r="F19" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="L19" s="54" t="s">
+      <c r="L19" s="53" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>1</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>587</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="43"/>
+      <c r="H20" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="L20" s="54" t="s">
+      <c r="L20" s="53" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>518</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43" t="s">
         <v>519</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>1</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="E21" s="43" t="s">
         <v>588</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="24" t="s">
+      <c r="G21" s="43"/>
+      <c r="H21" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="53" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
@@ -6222,13 +6623,13 @@
       <c r="F22" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="53" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6237,23 +6638,23 @@
         <v>534</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="51">
         <v>2</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="47" t="s">
         <v>598</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="47" t="s">
         <v>616</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="24" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="53" t="s">
         <v>616</v>
       </c>
     </row>
@@ -6262,23 +6663,23 @@
         <v>535</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="51">
         <v>2</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="47" t="s">
         <v>617</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="24" t="s">
+      <c r="G24" s="47"/>
+      <c r="H24" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="I24" s="54" t="s">
+      <c r="I24" s="53" t="s">
         <v>617</v>
       </c>
     </row>
@@ -6287,50 +6688,50 @@
         <v>536</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="51">
         <v>2</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="43" t="s">
         <v>599</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="24" t="s">
+      <c r="G25" s="43"/>
+      <c r="H25" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="I25" s="54" t="s">
+      <c r="I25" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="51">
         <v>2</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="J26" s="54" t="s">
+      <c r="J26" s="53" t="s">
         <v>613</v>
       </c>
     </row>
@@ -6339,181 +6740,181 @@
         <v>524</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="51">
         <v>2</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="53" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="47" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="51">
         <v>2</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="J28" s="54" t="s">
+      <c r="J28" s="53" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="44" t="s">
+      <c r="B29" s="45"/>
+      <c r="C29" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="51">
         <v>2</v>
       </c>
-      <c r="E29" s="44" t="s">
+      <c r="E29" s="43" t="s">
         <v>596</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>616</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H29" s="24" t="s">
+      <c r="H29" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="K29" s="54" t="s">
+      <c r="K29" s="53" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="51">
         <v>2</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="47" t="s">
         <v>633</v>
       </c>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="24" t="s">
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="K30" s="54" t="s">
+      <c r="K30" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="39" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="51">
         <v>2</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="38" t="s">
         <v>590</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="24" t="s">
+      <c r="G31" s="38"/>
+      <c r="H31" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="K31" s="54" t="s">
+      <c r="K31" s="53" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="44" t="s">
         <v>526</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="39" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="51">
         <v>2</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="L32" s="54" t="s">
+      <c r="L32" s="53" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="39" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="51">
         <v>2</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="38" t="s">
         <v>615</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H33" s="24" t="s">
+      <c r="H33" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="L33" s="54" t="s">
+      <c r="L33" s="53" t="s">
         <v>615</v>
       </c>
     </row>
@@ -6522,202 +6923,202 @@
         <v>537</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="51">
         <v>2</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="43" t="s">
         <v>600</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="28" t="s">
+      <c r="F34" s="43"/>
+      <c r="G34" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="M34" s="54"/>
+      <c r="M34" s="53"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="51">
         <v>2</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="24" t="s">
+      <c r="G35" s="47"/>
+      <c r="H35" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="M35" s="54" t="s">
+      <c r="M35" s="53" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>550</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="48" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="47" t="s">
         <v>551</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="51">
         <v>3</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="47" t="s">
         <v>607</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="24" t="s">
+      <c r="G36" s="47"/>
+      <c r="H36" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="I36" s="54" t="s">
+      <c r="I36" s="53" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="51">
         <v>3</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="E37" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="43" t="s">
         <v>624</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="24" t="s">
+      <c r="G37" s="43"/>
+      <c r="H37" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="I37" s="54" t="s">
+      <c r="I37" s="53" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="48" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="47" t="s">
         <v>544</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="51">
         <v>3</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="47" t="s">
         <v>603</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>620</v>
       </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="24" t="s">
+      <c r="G38" s="47"/>
+      <c r="H38" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="J38" s="54" t="s">
+      <c r="J38" s="53" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>546</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="48" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="51">
         <v>3</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="47" t="s">
         <v>605</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="47" t="s">
         <v>622</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="J39" s="54" t="s">
+      <c r="J39" s="53" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="48" t="s">
+      <c r="B40" s="42"/>
+      <c r="C40" s="47" t="s">
         <v>549</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="51">
         <v>3</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="47" t="s">
         <v>606</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="47" t="s">
         <v>616</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="K40" s="54" t="s">
+      <c r="K40" s="53" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="51">
         <v>3</v>
       </c>
-      <c r="E41" s="44" t="s">
+      <c r="E41" s="43" t="s">
         <v>608</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="G41" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="K41" s="54" t="s">
+      <c r="K41" s="53" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6726,212 +7127,212 @@
         <v>539</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="51">
         <v>3</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H42" s="24" t="s">
+      <c r="H42" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="L42" s="54" t="s">
+      <c r="L42" s="53" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="48" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="47" t="s">
         <v>542</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="51">
         <v>3</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="F43" s="48" t="s">
+      <c r="F43" s="47" t="s">
         <v>496</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="H43" s="24" t="s">
+      <c r="H43" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="M43" s="54" t="s">
+      <c r="M43" s="53" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="48" t="s">
+      <c r="B44" s="41"/>
+      <c r="C44" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="51">
         <v>3</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="47" t="s">
         <v>604</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="47" t="s">
         <v>621</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H44" s="24" t="s">
+      <c r="H44" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="M44" s="54" t="s">
+      <c r="M44" s="53" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="48" t="s">
+      <c r="B45" s="48"/>
+      <c r="C45" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="51">
         <v>3</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="47" t="s">
         <v>610</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="47" t="s">
         <v>622</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H45" s="24" t="s">
+      <c r="H45" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="M45" s="54" t="s">
+      <c r="M45" s="53" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="50" t="s">
+      <c r="B46" s="36"/>
+      <c r="C46" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="50" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="50" t="s">
+      <c r="B48" s="39"/>
+      <c r="C48" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="36" t="s">
         <v>560</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="50" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="50" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="49" t="s">
         <v>563</v>
       </c>
-      <c r="D50" s="53"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="50" t="s">
+      <c r="B51" s="36"/>
+      <c r="C51" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="50" t="s">
+      <c r="B52" s="36"/>
+      <c r="C52" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="D52" s="53"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="36"/>
+      <c r="C53" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/MT/教学点和游戏玩法整体节奏.xlsx
+++ b/gd/MT/教学点和游戏玩法整体节奏.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="1320" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4460" yWindow="1320" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总体教学点分布" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="713">
   <si>
     <t>游戏学习点和玩法分布</t>
   </si>
@@ -2196,6 +2196,36 @@
   </si>
   <si>
     <t>吸血 （按对方血量？——</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>真假玩法</t>
+  </si>
+  <si>
+    <t>3个同样地模型， 实际上只有一个是真的怪</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Visual Search</t>
+  </si>
+  <si>
+    <t>大家来找茬</t>
+  </si>
+  <si>
+    <t>弱点显示从暗变亮？</t>
+  </si>
+  <si>
+    <t>纹理</t>
+  </si>
+  <si>
+    <t>符文</t>
+  </si>
+  <si>
+    <t>Jumper？ Theroom</t>
   </si>
 </sst>
 </file>
@@ -3677,7 +3707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -4139,10 +4169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4428,6 +4458,51 @@
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>703</v>
+      </c>
+      <c r="B56" t="s">
+        <v>704</v>
+      </c>
+      <c r="C56" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>706</v>
+      </c>
+      <c r="B58" t="s">
+        <v>707</v>
+      </c>
+      <c r="C58" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>707</v>
+      </c>
+      <c r="C60" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/gd/MT/教学点和游戏玩法整体节奏.xlsx
+++ b/gd/MT/教学点和游戏玩法整体节奏.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="1320" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="39520" yWindow="1000" windowWidth="25900" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="总体教学点分布" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="750">
   <si>
     <t>游戏学习点和玩法分布</t>
   </si>
@@ -2226,6 +2226,128 @@
   </si>
   <si>
     <t>Jumper？ Theroom</t>
+  </si>
+  <si>
+    <t>层数和弱点逻辑</t>
+  </si>
+  <si>
+    <t>技能相关</t>
+  </si>
+  <si>
+    <t>弱点重点信息</t>
+  </si>
+  <si>
+    <t>本体， 铠甲</t>
+  </si>
+  <si>
+    <t>两个本体， 一个100%， 一个150%受伤比</t>
+  </si>
+  <si>
+    <t>小丑（红法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曼陀罗（绿法H）</t>
+  </si>
+  <si>
+    <t>狼人（蓝T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮影（黑法D）</t>
+  </si>
+  <si>
+    <t>花魄（绿D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑（蓝法D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>走音草（绿提升S）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞狮（红s）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘神（绿物D）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鬼（蓝控s）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜥蜴人（绿T）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑞斯（白妨害Ｓ）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河童（绿法D）</t>
+  </si>
+  <si>
+    <t>龙宫童子（蓝H）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个本体， 一个铠甲， 铠甲能加血</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,2 </t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>一个本体， 两个铠甲， 铠甲增加防御</t>
+  </si>
+  <si>
+    <t>一个本体， 两个铠甲， 铠甲1加血， 铠甲2加防御</t>
+  </si>
+  <si>
+    <t>加血， 防御</t>
+  </si>
+  <si>
+    <t>Visual</t>
+  </si>
+  <si>
+    <t>一个本体， 两个铠甲， 提升速度</t>
+  </si>
+  <si>
+    <t>Buff，速度</t>
+  </si>
+  <si>
+    <t>1,2,1</t>
+  </si>
+  <si>
+    <t>看投放情况，换怪可以增加好处</t>
+  </si>
+  <si>
+    <t>寻找曼陀罗重生的特殊部位</t>
+  </si>
+  <si>
+    <t>寻找狼人防御的装备</t>
+  </si>
+  <si>
+    <t>皮影带有两个技能， 可是样子却长得一样</t>
+  </si>
+  <si>
+    <t>小丑的武器隐藏了他的绝技</t>
+  </si>
+  <si>
+    <t>找找潘神用什么武器攻击？</t>
+  </si>
+  <si>
+    <t>找找龙宫童子用什么延长他的寿命？</t>
+  </si>
+  <si>
+    <t>这个部位特别弱</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2433,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2378,6 +2500,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2406,7 +2534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2584,6 +2712,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2865,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -4169,339 +4309,694 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" customWidth="1"/>
+    <col min="5" max="6" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="26.83203125" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" t="s">
+        <v>734</v>
+      </c>
+      <c r="D4" t="s">
+        <v>717</v>
+      </c>
+      <c r="E4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>719</v>
+      </c>
       <c r="C5" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F5" t="s">
+        <v>743</v>
+      </c>
+      <c r="J5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>720</v>
+      </c>
+      <c r="C6" t="s">
+        <v>426</v>
+      </c>
       <c r="D6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" t="s">
+        <v>744</v>
+      </c>
+      <c r="K6" t="s">
         <v>334</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="66" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" t="s">
+        <v>426</v>
+      </c>
       <c r="D7" t="s">
+        <v>736</v>
+      </c>
+      <c r="E7" t="s">
+        <v>737</v>
+      </c>
+      <c r="F7" t="s">
+        <v>745</v>
+      </c>
+      <c r="K7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>722</v>
+      </c>
+      <c r="C8" t="s">
+        <v>426</v>
+      </c>
       <c r="D8" t="s">
+        <v>739</v>
+      </c>
+      <c r="E8" t="s">
+        <v>740</v>
+      </c>
+      <c r="K8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>723</v>
+      </c>
+      <c r="F9" t="s">
+        <v>746</v>
+      </c>
+      <c r="K9" t="s">
         <v>336</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="68"/>
       <c r="C11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F11" t="s">
+        <v>742</v>
+      </c>
+      <c r="J11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>725</v>
+      </c>
+      <c r="C12" t="s">
+        <v>741</v>
+      </c>
+      <c r="K12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>726</v>
+      </c>
       <c r="C13" t="s">
+        <v>741</v>
+      </c>
+      <c r="F13" t="s">
+        <v>747</v>
+      </c>
+      <c r="J13" t="s">
         <v>339</v>
       </c>
-      <c r="E13" t="s">
+      <c r="L13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>727</v>
+      </c>
       <c r="C14" t="s">
+        <v>500</v>
+      </c>
+      <c r="J14" t="s">
         <v>341</v>
       </c>
-      <c r="E14" t="s">
+      <c r="L14" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="C15" t="s">
+        <v>500</v>
+      </c>
+      <c r="H15" t="s">
         <v>333</v>
       </c>
-      <c r="B15" t="s">
+      <c r="I15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>729</v>
+      </c>
+      <c r="J16" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="F18" t="s">
+        <v>748</v>
+      </c>
+      <c r="J18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    <row r="19" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="K19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="J20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+    <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="J21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="K22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="K23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="J24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="K25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+    <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="J26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="K27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="H28" t="s">
         <v>345</v>
       </c>
-      <c r="B28" t="s">
+      <c r="I28" t="s">
         <v>23</v>
       </c>
-      <c r="D28" t="s">
+      <c r="K28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="J29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="H30" t="s">
         <v>346</v>
       </c>
-      <c r="B30" t="s">
+      <c r="I30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="J31" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="H32" t="s">
         <v>347</v>
       </c>
-      <c r="B32" t="s">
+      <c r="I32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="J33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="J34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="J35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="J36" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="37" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="H38" t="s">
         <v>348</v>
       </c>
-      <c r="B38" t="s">
+      <c r="I38" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
+      <c r="J38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="30"/>
+    </row>
+    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="H40" t="s">
         <v>353</v>
       </c>
-      <c r="B40" t="s">
+      <c r="I40" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="30"/>
+      <c r="J41" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
+    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="J42" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="29"/>
+    </row>
+    <row r="44" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="29"/>
+      <c r="H44" t="s">
         <v>354</v>
       </c>
-      <c r="B44" t="s">
+      <c r="I44" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
+    <row r="45" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="29"/>
+      <c r="J45" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
+    <row r="46" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="29"/>
+      <c r="J46" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
+    <row r="47" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="J47" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
+    <row r="48" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="J48" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
+    <row r="49" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="29"/>
+      <c r="J49" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="50" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="29"/>
+    </row>
+    <row r="51" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="H51" t="s">
         <v>361</v>
       </c>
-      <c r="B51" t="s">
+      <c r="I51" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    <row r="52" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="J52" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="53" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="J53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C54" t="s">
+    <row r="54" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="29"/>
+      <c r="J54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="55" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="29"/>
+    </row>
+    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="29"/>
+      <c r="H56" t="s">
         <v>703</v>
       </c>
-      <c r="B56" t="s">
+      <c r="I56" t="s">
         <v>704</v>
       </c>
-      <c r="C56" t="s">
+      <c r="J56" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="29"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
         <v>706</v>
       </c>
-      <c r="B58" t="s">
+      <c r="I58" t="s">
         <v>707</v>
       </c>
-      <c r="C58" t="s">
+      <c r="J58" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
         <v>707</v>
       </c>
-      <c r="C60" t="s">
+      <c r="J60" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J62" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J64" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J66" t="s">
         <v>711</v>
       </c>
     </row>
@@ -4515,11 +5010,11 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="10" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="10" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="M5:R12"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A14:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
